--- a/blocks_final_express.xlsx
+++ b/blocks_final_express.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backups\All Files\Genel\Is\2022\Upwork\LabX\studies\materials\drivingSimulator\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A458160-5C4A-42A2-A467-7F867D60CD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B93802-36DC-4FA9-AF95-A5011042AC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="855" windowWidth="25875" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>current_font</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>clutterChangeEnabled</t>
+  </si>
+  <si>
+    <t>full_task_wo_driving_training</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -657,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -683,10 +686,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -695,22 +698,22 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>1.77</v>
       </c>
       <c r="J7">
-        <v>1.9824999999999999</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
@@ -721,10 +724,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -748,7 +751,7 @@
         <v>1.77</v>
       </c>
       <c r="J8">
-        <v>1.96</v>
+        <v>1.9824999999999999</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
@@ -759,10 +762,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -786,12 +789,50 @@
         <v>1.77</v>
       </c>
       <c r="J9">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
       </c>
       <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>1.77</v>
+      </c>
+      <c r="J10">
+        <v>2.14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="b">
         <v>1</v>
       </c>
     </row>

--- a/blocks_final_express.xlsx
+++ b/blocks_final_express.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backups\All Files\Genel\Is\2022\Upwork\LabX\studies\materials\drivingSimulator\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B93802-36DC-4FA9-AF95-A5011042AC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D9CA7-A027-47AC-A77C-37A3DF966B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>current_font</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>full_task_wo_driving_training</t>
+  </si>
+  <si>
+    <t>./instructions_pilot/clutterlex_training.png</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>1.77</v>

--- a/blocks_final_express.xlsx
+++ b/blocks_final_express.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backups\All Files\Genel\Is\2022\Upwork\LabX\studies\materials\drivingSimulator\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D9CA7-A027-47AC-A77C-37A3DF966B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001839B3-E809-4C58-8FE0-24E122CBF47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/blocks_final_express.xlsx
+++ b/blocks_final_express.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backups\All Files\Genel\Is\2022\Upwork\LabX\studies\materials\drivingSimulator\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001839B3-E809-4C58-8FE0-24E122CBF47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D613608-A9F2-4027-92AD-B003ED6BAFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>./instructions_pilot/lexical_task.png</t>
   </si>
   <si>
-    <t>./instructions_pilot/driving_lexical_training.png</t>
-  </si>
-  <si>
     <t>instruction_image_file</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>full_task_neuefrutigerworld</t>
   </si>
   <si>
-    <t>./instructions_pilot/full_task.png</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>./instructions_pilot/clutterlex_training.png</t>
+  </si>
+  <si>
+    <t>./instructions_pilot/full_task_clutter.png</t>
+  </si>
+  <si>
+    <t>./instructions_pilot/clutterlex_driving_training.png</t>
   </si>
 </sst>
 </file>
@@ -450,13 +450,15 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -482,24 +484,24 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -537,7 +539,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -575,7 +577,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -613,10 +615,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -651,10 +653,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -669,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <v>1.77</v>
@@ -689,10 +691,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -710,7 +712,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>1.77</v>
@@ -727,10 +729,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -748,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>1.77</v>
@@ -765,10 +767,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -786,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>1.77</v>
@@ -803,10 +805,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -824,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>1.77</v>
